--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -186,14 +181,26 @@
   </si>
   <si>
     <t>renter、renterpc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉、吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -922,17 +929,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -958,7 +965,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1061,17 +1068,25 @@
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
+      <c r="N2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="11">
+        <v>42695</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="16"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1094,7 +1109,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="16"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1117,7 +1132,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="16"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1140,7 +1155,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1163,7 +1178,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1186,7 +1201,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1209,7 +1224,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1232,7 +1247,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1255,7 +1270,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -1278,7 +1293,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1301,7 +1316,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1324,7 +1339,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -1347,7 +1362,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1370,7 +1385,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1393,7 +1408,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1416,7 +1431,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1439,7 +1454,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1462,7 +1477,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1485,7 +1500,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1508,7 +1523,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1531,7 +1546,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1554,7 +1569,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1577,7 +1592,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1600,7 +1615,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1623,7 +1638,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1646,7 +1661,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1669,7 +1684,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1692,7 +1707,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1715,7 +1730,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1738,7 +1753,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1761,7 +1776,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1784,7 +1799,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1807,7 +1822,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1830,7 +1845,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1853,7 +1868,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1876,7 +1891,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1899,7 +1914,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1922,7 +1937,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1945,7 +1960,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1968,7 +1983,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1991,7 +2006,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2014,7 +2029,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2037,7 +2052,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2060,7 +2075,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2083,7 +2098,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2106,7 +2121,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2129,7 +2144,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2152,7 +2167,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2175,7 +2190,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2198,7 +2213,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2221,7 +2236,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2244,7 +2259,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2267,7 +2282,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2290,7 +2305,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2313,7 +2328,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2336,7 +2351,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2359,7 +2374,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2382,7 +2397,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2405,7 +2420,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2428,7 +2443,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2451,7 +2466,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2474,7 +2489,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2497,7 +2512,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2520,7 +2535,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2543,7 +2558,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2566,7 +2581,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2589,7 +2604,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2612,7 +2627,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2635,7 +2650,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2658,7 +2673,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2681,7 +2696,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2704,7 +2719,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2727,7 +2742,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2750,7 +2765,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2773,7 +2788,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2796,7 +2811,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2819,7 +2834,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2842,7 +2857,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2865,7 +2880,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2888,7 +2903,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2911,7 +2926,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2934,7 +2949,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2957,7 +2972,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2980,7 +2995,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3003,7 +3018,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3026,7 +3041,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3049,7 +3064,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3072,7 +3087,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3095,7 +3110,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3118,7 +3133,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3141,7 +3156,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3164,7 +3179,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3187,7 +3202,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3210,7 +3225,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3233,7 +3248,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3256,7 +3271,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3279,7 +3294,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3302,7 +3317,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3325,7 +3340,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3348,7 +3363,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3371,7 +3386,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3394,7 +3409,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3414,7 +3429,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3434,7 +3449,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3454,7 +3469,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3474,7 +3489,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3494,7 +3509,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3514,7 +3529,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3534,7 +3549,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3554,7 +3569,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3574,7 +3589,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3594,7 +3609,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3614,7 +3629,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3634,7 +3649,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3654,7 +3669,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3674,7 +3689,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3694,7 +3709,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3714,7 +3729,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3734,7 +3749,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3754,7 +3769,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3774,7 +3789,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3794,7 +3809,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3814,7 +3829,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3834,7 +3849,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3854,7 +3869,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3874,7 +3889,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3894,7 +3909,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3914,7 +3929,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3934,7 +3949,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3954,7 +3969,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3974,7 +3989,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -3994,7 +4009,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4014,7 +4029,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4034,7 +4049,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4054,7 +4069,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4074,7 +4089,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4094,131 +4109,131 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:3">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:3">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
@@ -4230,21 +4245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
@@ -4257,7 +4272,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4268,7 +4283,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4297,7 +4312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4308,7 +4323,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4319,7 +4334,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4330,7 +4345,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4341,7 +4356,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4352,7 +4367,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4363,7 +4378,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4374,7 +4389,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4385,7 +4400,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4396,7 +4411,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4407,7 +4422,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4436,14 +4451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4454,7 +4469,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4480,7 +4495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4490,7 +4505,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4500,7 +4515,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4510,7 +4525,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4520,7 +4535,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4530,7 +4545,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4540,7 +4555,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4550,7 +4565,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4560,7 +4575,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4570,7 +4585,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4580,7 +4595,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4590,7 +4605,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4600,7 +4615,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4610,7 +4625,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4620,7 +4635,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4630,7 +4645,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4640,7 +4655,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4650,7 +4665,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -193,6 +193,34 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复首页banner鼠标拖动会显示空白区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +961,10 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1087,24 +1115,56 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="16.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="11">
+        <v>42696</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="11">
+        <v>42696</v>
+      </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="7"/>
+      <c r="L3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="11">
+        <v>42696</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="7">
+        <v>5199</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_EQ组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -221,14 +226,18 @@
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -957,17 +966,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -993,7 +1002,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1114,7 +1123,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1127,7 +1136,9 @@
       <c r="D3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>53</v>
       </c>
@@ -1169,7 +1180,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1192,7 +1203,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -1215,7 +1226,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -1238,7 +1249,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -1261,7 +1272,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1284,7 +1295,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1307,7 +1318,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1330,7 +1341,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -1353,7 +1364,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1376,7 +1387,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1399,7 +1410,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -1422,7 +1433,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1445,7 +1456,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1468,7 +1479,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1491,7 +1502,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1514,7 +1525,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1537,7 +1548,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1560,7 +1571,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1583,7 +1594,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1606,7 +1617,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1629,7 +1640,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1652,7 +1663,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1675,7 +1686,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1698,7 +1709,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1721,7 +1732,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1744,7 +1755,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1767,7 +1778,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1790,7 +1801,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1813,7 +1824,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1836,7 +1847,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1859,7 +1870,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1882,7 +1893,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1905,7 +1916,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1928,7 +1939,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1951,7 +1962,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1974,7 +1985,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1997,7 +2008,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2020,7 +2031,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2043,7 +2054,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2066,7 +2077,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2089,7 +2100,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2112,7 +2123,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2135,7 +2146,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2158,7 +2169,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2181,7 +2192,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2204,7 +2215,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2227,7 +2238,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2250,7 +2261,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2273,7 +2284,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2296,7 +2307,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2319,7 +2330,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2342,7 +2353,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2365,7 +2376,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2388,7 +2399,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2411,7 +2422,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2434,7 +2445,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2457,7 +2468,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2480,7 +2491,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2503,7 +2514,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2526,7 +2537,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2549,7 +2560,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2572,7 +2583,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2595,7 +2606,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2618,7 +2629,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2641,7 +2652,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2664,7 +2675,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2687,7 +2698,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2710,7 +2721,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2733,7 +2744,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2756,7 +2767,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2779,7 +2790,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2802,7 +2813,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2825,7 +2836,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2848,7 +2859,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2871,7 +2882,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2894,7 +2905,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2917,7 +2928,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2940,7 +2951,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2963,7 +2974,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2986,7 +2997,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3009,7 +3020,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3032,7 +3043,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3055,7 +3066,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3078,7 +3089,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3101,7 +3112,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3124,7 +3135,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3147,7 +3158,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5">
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3170,7 +3181,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5">
+    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3193,7 +3204,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5">
+    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3216,7 +3227,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5">
+    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3239,7 +3250,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5">
+    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3262,7 +3273,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5">
+    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3285,7 +3296,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5">
+    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3308,7 +3319,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5">
+    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3331,7 +3342,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5">
+    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3354,7 +3365,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5">
+    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3377,7 +3388,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5">
+    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3400,7 +3411,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5">
+    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3423,7 +3434,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5">
+    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3446,7 +3457,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5">
+    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3469,7 +3480,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5">
+    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3489,7 +3500,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5">
+    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3509,7 +3520,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5">
+    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3529,7 +3540,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5">
+    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3549,7 +3560,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5">
+    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3569,7 +3580,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5">
+    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3589,7 +3600,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5">
+    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3609,7 +3620,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5">
+    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3629,7 +3640,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5">
+    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3649,7 +3660,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5">
+    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3669,7 +3680,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5">
+    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3689,7 +3700,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5">
+    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3709,7 +3720,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5">
+    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3729,7 +3740,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5">
+    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3749,7 +3760,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5">
+    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3769,7 +3780,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5">
+    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3789,7 +3800,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5">
+    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3809,7 +3820,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5">
+    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3829,7 +3840,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5">
+    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3849,7 +3860,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5">
+    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3869,7 +3880,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5">
+    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3889,7 +3900,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5">
+    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3909,7 +3920,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5">
+    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3929,7 +3940,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5">
+    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3949,7 +3960,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5">
+    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3969,7 +3980,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5">
+    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3989,7 +4000,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5">
+    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4009,7 +4020,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5">
+    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4029,7 +4040,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5">
+    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4049,7 +4060,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5">
+    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4069,7 +4080,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5">
+    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4089,7 +4100,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5">
+    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4109,7 +4120,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4129,7 +4140,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4149,7 +4160,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4169,131 +4180,131 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
@@ -4305,21 +4316,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4343,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4343,7 +4354,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4372,7 +4383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4383,7 +4394,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4394,7 +4405,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4405,7 +4416,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4416,7 +4427,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4427,7 +4438,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4438,7 +4449,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4449,7 +4460,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4460,7 +4471,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4471,7 +4482,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4482,7 +4493,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4511,14 +4522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4529,7 +4540,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4565,7 +4576,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4575,7 +4586,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4585,7 +4596,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4595,7 +4606,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4605,7 +4616,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4615,7 +4626,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4625,7 +4636,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4635,7 +4646,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4645,7 +4656,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4655,7 +4666,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4665,7 +4676,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4675,7 +4686,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4685,7 +4696,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4695,7 +4706,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4705,7 +4716,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4715,7 +4726,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4725,7 +4736,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
